--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,48 +1148,48 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>30/07/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>30/07/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>30/07/2023 13:28</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:27</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:28</t>
-        </is>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-nurnberg/jqSGBlF0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-paderborn/OMeKCUaf/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30/07/2023 13:26</t>
+          <t>30/07/2023 13:29</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.61</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>30/07/2023 13:26</t>
+          <t>30/07/2023 13:28</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.78</v>
+        <v>2.67</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.71</v>
+        <v>2.99</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>30/07/2023 13:28</t>
+          <t>30/07/2023 13:29</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-paderborn/OMeKCUaf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-holstein-kiel/UZQKA8U6/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1336,11 +1336,11 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>30/07/2023 13:29</t>
+          <t>30/07/2023 13:28</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,32 +1348,32 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.72</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>30/07/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>30/07/2023 13:28</t>
         </is>
       </c>
-      <c r="R10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:29</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-holstein-kiel/UZQKA8U6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-nurnberg/jqSGBlF0/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.38</v>
+        <v>4.57</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5.3</v>
+        <v>5.52</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>5.3</v>
+        <v>4.73</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-wehen/4pcKxMTp/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-vfl-osnabruck/UwHb0PLi/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.57</v>
+        <v>4.38</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>5.52</v>
+        <v>5.3</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.73</v>
+        <v>5.3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-vfl-osnabruck/UwHb0PLi/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-wehen/4pcKxMTp/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.19</v>
+        <v>1.88</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:12</t>
+          <t>29/07/2023 20:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>05/08/2023 12:57</t>
+          <t>05/08/2023 12:59</t>
         </is>
       </c>
       <c r="N13" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>29/07/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
         <v>3.74</v>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>01/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>3.69</v>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>05/08/2023 12:39</t>
+          <t>05/08/2023 12:59</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.17</v>
+        <v>3.99</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:12</t>
+          <t>29/07/2023 20:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.61</v>
+        <v>3.97</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>05/08/2023 12:58</t>
+          <t>05/08/2023 12:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hansa-rostock/ShDJe1zN/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-dusseldorf/jmIf156o/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.88</v>
+        <v>2.43</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/07/2023 20:42</t>
+          <t>30/07/2023 13:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.96</v>
+        <v>2.69</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:59</t>
+          <t>05/08/2023 12:57</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.97</v>
+        <v>3.66</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/07/2023 20:42</t>
+          <t>30/07/2023 13:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.74</v>
+        <v>3.88</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:59</t>
+          <t>05/08/2023 12:52</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.99</v>
+        <v>2.89</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/07/2023 20:42</t>
+          <t>30/07/2023 13:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.97</v>
+        <v>2.51</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 12:59</t>
+          <t>05/08/2023 12:57</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-dusseldorf/jmIf156o/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-greuther-furth/x4K6b3j4/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Greuther Furth</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>30/07/2023 13:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.69</v>
+        <v>2.08</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,40 +1800,40 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.66</v>
+        <v>3.74</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>30/07/2023 13:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.88</v>
+        <v>3.69</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>05/08/2023 12:52</t>
+          <t>05/08/2023 12:39</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.89</v>
+        <v>3.17</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>30/07/2023 13:42</t>
+          <t>01/08/2023 05:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.51</v>
+        <v>3.61</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>05/08/2023 12:57</t>
+          <t>05/08/2023 12:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-greuther-furth/x4K6b3j4/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hansa-rostock/ShDJe1zN/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4.31</v>
+        <v>2.51</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.27</v>
+        <v>2.25</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>20/08/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>12/08/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>20/08/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>12/08/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>20/08/2023 13:29</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>12/08/2023 13:43</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:29</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>12/08/2023 13:43</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:29</t>
-        </is>
-      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-schalke/CMYlBtzA/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-nurnberg/6qYhA0kG/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.51</v>
+        <v>4.31</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.25</v>
+        <v>3.27</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20/08/2023 13:28</t>
+          <t>20/08/2023 13:29</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.56</v>
+        <v>3.97</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.57</v>
+        <v>3.79</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20/08/2023 13:27</t>
+          <t>20/08/2023 13:29</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.79</v>
+        <v>1.79</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.29</v>
+        <v>2.18</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-nurnberg/6qYhA0kG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-schalke/CMYlBtzA/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:25</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.41</v>
+        <v>4.19</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:24</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.78</v>
+        <v>4.04</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:28</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:25</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.19</v>
+        <v>4.41</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:24</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.04</v>
+        <v>4.78</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:28</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:02</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.78</v>
+        <v>4.27</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.01</v>
+        <v>3.76</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:18</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.93</v>
+        <v>4.58</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:04</t>
+          <t>03/09/2023 13:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.03</v>
+        <v>1.47</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.27</v>
+        <v>5.19</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.76</v>
+        <v>4.91</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:18</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.58</v>
+        <v>7.01</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:27</t>
+          <t>03/09/2023 13:28</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-hannover/zyA2QCuE/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.43</v>
+        <v>2.35</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.47</v>
+        <v>2.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:02</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>5.19</v>
+        <v>3.78</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.91</v>
+        <v>4.01</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7.01</v>
+        <v>2.93</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>6.7</v>
+        <v>2.88</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:28</t>
+          <t>03/09/2023 13:04</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hamburger-hansa-rostock/YcA45B3l/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-elversberg/djbBOjAQ/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.5</v>
+        <v>4.17</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/09/2023 17:56</t>
+          <t>15/09/2023 18:29</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.83</v>
+        <v>4.83</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.79</v>
+        <v>3.64</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/09/2023 18:25</t>
+          <t>15/09/2023 18:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-greuther-furth/EmpsxAvQ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-wehen/QR3nGSH6/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.17</v>
+        <v>3.5</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/09/2023 18:29</t>
+          <t>15/09/2023 17:56</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.83</v>
+        <v>2.83</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.64</v>
+        <v>2.79</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/09/2023 18:29</t>
+          <t>15/09/2023 18:25</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-wehen/QR3nGSH6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-greuther-furth/EmpsxAvQ/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.89</v>
+        <v>3.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.78</v>
+        <v>3.37</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.26</v>
+        <v>3.39</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.17</v>
+        <v>3.45</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.01</v>
+        <v>3.89</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.37</v>
+        <v>3.78</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.39</v>
+        <v>4.26</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.45</v>
+        <v>4.17</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:20</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.48</v>
+        <v>3.99</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.2</v>
+        <v>4.06</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:29</t>
+          <t>17/09/2023 13:28</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.39</v>
+        <v>4.19</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>17/09/2023 13:23</t>
+          <t>17/09/2023 13:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:20</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.99</v>
+        <v>4.48</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.06</v>
+        <v>4.2</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:28</t>
+          <t>17/09/2023 13:29</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.19</v>
+        <v>4.39</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 13:27</t>
+          <t>17/09/2023 13:23</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-vfl-osnabruck/Yi7fE6nJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hertha-berlin-braunschweig/6PmoIlmf/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,466 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-holstein-kiel/ny5rH820/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45191.77083333334</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-paderborn/CrSTS51C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45191.77083333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-hamburger/MD9KkT8P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-nurnberg/8ALxRqWO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>16/09/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>16/09/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>16/09/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-karlsruher/UJMYRPGI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_2-bundesliga_2023-2024.xlsx
+++ b/2023/germany_2-bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.27</v>
+        <v>1.96</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.57</v>
+        <v>3.78</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.12</v>
+        <v>4.09</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:57</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.33</v>
+        <v>3.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 12:59</t>
+          <t>29/07/2023 12:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-st-pauli/j9cCEjVs/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.22</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.69</v>
+        <v>3.58</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.84</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 12:33</t>
+          <t>29/07/2023 12:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Karlsruher SC</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.19</v>
+        <v>3.27</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,32 +888,32 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.84</v>
+        <v>3.12</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>29/07/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>29/07/2023 12:59</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>29/07/2023 12:59</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/vfl-osnabruck-karlsruher/OdQO9SqD/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-st-pauli/j9cCEjVs/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.98</v>
+        <v>3.22</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,48 +964,48 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>29/07/2023 12:33</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>29/07/2023 12:58</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="R6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>08/07/2023 18:28</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>29/07/2023 12:58</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>3.65</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 12:58</t>
+          <t>29/07/2023 12:33</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hannover-elversberg/pWdGDApl/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-magdeburg/x0US8naJ/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.53</v>
+        <v>2.42</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30/07/2023 13:26</t>
+          <t>30/07/2023 13:28</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30/07/2023 13:26</t>
+          <t>30/07/2023 13:27</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.78</v>
+        <v>3.07</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.71</v>
+        <v>3.39</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-paderborn/OMeKCUaf/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-nurnberg/jqSGBlF0/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30/07/2023 13:29</t>
+          <t>30/07/2023 13:26</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>3.61</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,32 +1256,32 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>30/07/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>30/07/2023 13:28</t>
         </is>
       </c>
-      <c r="R9" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:29</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-holstein-kiel/UZQKA8U6/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/greuther-furth-paderborn/OMeKCUaf/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1336,44 +1336,44 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>30/07/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>08/07/2023 18:28</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>30/07/2023 13:28</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="R10" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>08/07/2023 18:28</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:27</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>08/07/2023 18:28</t>
-        </is>
-      </c>
       <c r="T10" t="n">
-        <v>3.39</v>
+        <v>2.99</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>30/07/2023 13:28</t>
+          <t>30/07/2023 13:29</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-nurnberg/jqSGBlF0/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/braunschweig-holstein-kiel/UZQKA8U6/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>2.93</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:26</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.78</v>
+        <v>3.97</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.45</v>
+        <v>4.14</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.73</v>
+        <v>2.28</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.98</v>
+        <v>2.62</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:23</t>
+          <t>06/08/2023 13:26</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.87</v>
+        <v>3.78</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.02</v>
+        <v>3.45</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:28</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.49</v>
+        <v>3.73</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.53</v>
+        <v>2.98</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/nurnberg-hannover/bJ8FdsLG/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>06/08/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>30/07/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
           <t>06/08/2023 13:27</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="R19" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>30/07/2023 13:42</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>06/08/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>30/07/2023 13:42</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>2.62</v>
+        <v>4.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 13:28</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/karlsruher-hamburger/O0G2aqyb/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/magdeburg-braunschweig/KS9BcN5A/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:25</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.19</v>
+        <v>4.41</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:24</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.04</v>
+        <v>4.78</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>19/08/2023 12:12</t>
+          <t>20/08/2023 15:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>25/08/2023 18:28</t>
+          <t>25/08/2023 18:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:25</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.41</v>
+        <v>4.19</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:24</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.78</v>
+        <v>4.04</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:12</t>
+          <t>19/08/2023 12:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>25/08/2023 18:29</t>
+          <t>25/08/2023 18:28</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/schalke-holstein-kiel/2BR18vKS/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/paderborn-kaiserslautern/jyCy2xcd/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Dusseldorf</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
       <c r="J49" t="n">
-        <v>3.01</v>
+        <v>3.89</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.37</v>
+        <v>3.78</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.39</v>
+        <v>4.26</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.45</v>
+        <v>4.17</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>3.89</v>
+        <v>3.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.78</v>
+        <v>3.37</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.26</v>
+        <v>3.39</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.17</v>
+        <v>3.45</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/2-bundesliga/elversberg-hamburger/6ux9XTns/</t>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/hansa-rostock-dusseldorf/zcowwjPJ/</t>
         </is>
       </c>
     </row>
@@ -5974,6 +5974,374 @@
       <c r="V60" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/2-bundesliga/wehen-elversberg/bZ0nomHt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45192.85416666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/st-pauli-schalke/SfQHV7Hg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45193.5625</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/dusseldorf-hannover/pWzDWm2m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45193.5625</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:20</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/holstein-kiel-hertha-berlin/vVTLURWa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2-bundesliga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45193.5625</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:22</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:24</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:24</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/2-bundesliga/kaiserslautern-hansa-rostock/YiTPTon6/</t>
         </is>
       </c>
     </row>
